--- a/biology/Médecine/1875_en_santé_et_médecine/1875_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1875_en_santé_et_médecine/1875_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1875_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1875_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1875 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1875_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1875_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>21 février : naissance de Jeanne Calment (morte en 1997) qui deviendra célèbre par sa longévité.
-1er octobre : Wilhelm Wundt, médecin et physiologiste, professeur de philosophie inductive à Zurich[1], prend la chaire de philosophie à l'université de Leipzig ; le sénat académique lui attribue un auditorium dans l'ancien foyer des séminaristes pour accueillir dans le même moyen de démonstration des conférences sur la psychologie et des appareils destinés à leur propre travail expérimental. Cela deviendra le premier laboratoire de psychologie expérimentale en 1879[2],[3].
+1er octobre : Wilhelm Wundt, médecin et physiologiste, professeur de philosophie inductive à Zurich, prend la chaire de philosophie à l'université de Leipzig ; le sénat académique lui attribue un auditorium dans l'ancien foyer des séminaristes pour accueillir dans le même moyen de démonstration des conférences sur la psychologie et des appareils destinés à leur propre travail expérimental. Cela deviendra le premier laboratoire de psychologie expérimentale en 1879,.
 Cette année-là
-Ouverture de l'hôpital psychiatrique de Marsens, dans le canton de Fribourg, en Suisse[4].
+Ouverture de l'hôpital psychiatrique de Marsens, dans le canton de Fribourg, en Suisse.
 Alfred Vulpian, physiologiste, neurologue et anatomiste, est élu doyen de la faculté de médecine de Paris, poste qu'il conservera jusqu'en 1881.
 Épidémie de variole à Montréal. Le maire, William Hales Hingston, est aussi médecin : il se fait accorder le droit d'obliger les gens à se faire vacciner. Par ailleurs, comme mesure d'hygiène, il a implanté un système de ramassage des déchets.</t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1875_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1875_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Apollinaire Bouchardat : De la glycosurie ou diabète sucré, son traitement hygiénique[5], où l'auteur montre que la suppression du pancréas provoque le diabète.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Apollinaire Bouchardat : De la glycosurie ou diabète sucré, son traitement hygiénique, où l'auteur montre que la suppression du pancréas provoque le diabète.
 Alphonse Laveran : Traité des maladies et épidémies des armées.
 Jules Bernard Luys et Francis A. Countway, Leçons sur la structure et les maladies du système nerveux.</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1875_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1875_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>14 janvier : Albert Schweitzer (mort en 1965), médecin et philosophe français.
 16 janvier : Leonor Michaelis (mort en 1949), médecin et biochimiste allemand.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1875_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1875_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,13 +631,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>11 avril : Heinrich Schwabe (né en 1789), pharmacien puis astronome allemand.
 21 juin Jean Nicolas Demarquay (né en 1814), chirurgien français.
 10 septembre : Luigi Porta (né en 1800), médecin anatomiste et homme politique italien.
 15 septembre : Guillaume Duchenne de Boulogne (né en 1806), neurologue français.
-19 décembre : Achille Berg (né en 1832), médecin réunionnais[6].
+19 décembre : Achille Berg (né en 1832), médecin réunionnais.
 Sans date
 John McClelland (né en 1805), médecin et naturaliste britannique.</t>
         </is>
